--- a/DragPrediction/NL2VP DragX/0.5L/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/5/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Desktop\New folder\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\NL2VP DragX\0.5L\n\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -354,15 +354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -378,8 +378,11 @@
       <c r="E1">
         <v>8.1675991735537194E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1">
+        <v>2.8965517239999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>-4.4326699999999999</v>
       </c>
@@ -400,8 +403,16 @@
         <f>SUM(E2:E41)</f>
         <v>2.2872981283795668</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <f>D2*$G$1</f>
+        <v>2.9586795433073863</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G137)</f>
+        <v>8.1116582685792462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>-4.4095219999999999</v>
       </c>
@@ -418,8 +429,12 @@
         <f t="shared" ref="E3:E41" si="0">D3*$E$1</f>
         <v>0.768999007254905</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <f t="shared" ref="G3:G41" si="1">D3*$G$1</f>
+        <v>2.7271727626287552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>-4.3710440000000004</v>
       </c>
@@ -436,8 +451,12 @@
         <f t="shared" si="0"/>
         <v>0.49183674839623143</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.7442464440548717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>-4.3108899999999997</v>
       </c>
@@ -454,8 +473,12 @@
         <f t="shared" si="0"/>
         <v>6.7235513044710746E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.23844355860933519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>-4.277946</v>
       </c>
@@ -472,8 +495,12 @@
         <f t="shared" si="0"/>
         <v>6.0082370526508264E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.2130757034381294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>-4.262302</v>
       </c>
@@ -490,8 +517,12 @@
         <f t="shared" si="0"/>
         <v>0.230241827383562</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.8165280247887039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>-4.1992789999999998</v>
       </c>
@@ -508,8 +539,12 @@
         <f t="shared" si="0"/>
         <v>5.9161579898479338E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.20981021792104351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>-4.0884960000000001</v>
       </c>
@@ -526,8 +561,12 @@
         <f t="shared" si="0"/>
         <v>5.8494793437148763E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.0744553102460438E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>-3.8685040000000002</v>
       </c>
@@ -544,8 +583,12 @@
         <f t="shared" si="0"/>
         <v>-8.5186491201123968E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-0.30210478343388991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>-3.8567209999999998</v>
       </c>
@@ -562,8 +605,12 @@
         <f t="shared" si="0"/>
         <v>-0.14191463293703308</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-0.50328507307948234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>-3.8409390000000001</v>
       </c>
@@ -580,8 +627,12 @@
         <f t="shared" si="0"/>
         <v>-7.8432997478082661E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-0.27815423998675459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>-3.775531</v>
       </c>
@@ -598,8 +649,12 @@
         <f t="shared" si="0"/>
         <v>-6.2461731014950415E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-0.22151385102393448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>-3.1153979999999999</v>
       </c>
@@ -616,8 +671,12 @@
         <f t="shared" si="0"/>
         <v>3.904376218411984E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.13846452826926853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>-3.11524</v>
       </c>
@@ -634,8 +693,12 @@
         <f t="shared" si="0"/>
         <v>4.2713284805615703E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.15147809792382122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>-3.084606</v>
       </c>
@@ -652,8 +715,12 @@
         <f t="shared" si="0"/>
         <v>9.2097848280991738E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>3.2661517239823999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>-3.0343800000000001</v>
       </c>
@@ -670,8 +737,12 @@
         <f t="shared" si="0"/>
         <v>-6.9342214569942162E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-0.24591475033311735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>-2.6840769999999998</v>
       </c>
@@ -688,8 +759,12 @@
         <f t="shared" si="0"/>
         <v>-0.14841814911976861</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-0.52634909790597029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>-2.6608550000000002</v>
       </c>
@@ -706,8 +781,12 @@
         <f t="shared" si="0"/>
         <v>-0.14439449573330579</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-0.51207964135492556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>-2.606538</v>
       </c>
@@ -724,8 +803,12 @@
         <f t="shared" si="0"/>
         <v>-0.13838837000504134</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.4907795585973192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>-2.5310929999999998</v>
       </c>
@@ -742,8 +825,12 @@
         <f t="shared" si="0"/>
         <v>-9.92658476620909E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.3520357158453053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>-1.274567</v>
       </c>
@@ -760,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>1.598406509103719E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5.6685777928335158E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>-0.63087899999999997</v>
       </c>
@@ -778,8 +869,12 @@
         <f t="shared" si="0"/>
         <v>2.6682550052900829E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>9.4626811029976721E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>-0.55714200000000003</v>
       </c>
@@ -796,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>8.6726181656528942E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3.0756513101983681E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>-0.50787400000000005</v>
       </c>
@@ -814,8 +913,12 @@
         <f t="shared" si="0"/>
         <v>2.1070862191524792E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>7.4725559996441634E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>-0.50687099999999996</v>
       </c>
@@ -832,8 +935,12 @@
         <f t="shared" si="0"/>
         <v>2.808081036101653E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>9.9585591719395752E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>-0.45233800000000002</v>
       </c>
@@ -850,8 +957,12 @@
         <f t="shared" si="0"/>
         <v>3.105208492916529E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.11012289930510087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>-0.435502</v>
       </c>
@@ -868,8 +979,12 @@
         <f t="shared" si="0"/>
         <v>2.4393073993363636E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>8.6507428961397834E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>-0.40043800000000002</v>
       </c>
@@ -886,8 +1001,12 @@
         <f t="shared" si="0"/>
         <v>2.3604737321132233E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>8.3711677237393034E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>-0.31309799999999999</v>
       </c>
@@ -904,8 +1023,12 @@
         <f t="shared" si="0"/>
         <v>2.4642177600557855E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>8.73908482717006E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>-0.29235800000000001</v>
       </c>
@@ -922,8 +1045,12 @@
         <f t="shared" si="0"/>
         <v>2.4542230689471076E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>8.7036397237234706E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>-0.24201800000000001</v>
       </c>
@@ -940,8 +1067,12 @@
         <f t="shared" si="0"/>
         <v>2.3911643027677686E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>8.4800085513203269E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>-0.21840499999999999</v>
       </c>
@@ -958,8 +1089,12 @@
         <f t="shared" si="0"/>
         <v>1.9743284286657028E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>7.0017446893217566E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>-0.15779599999999999</v>
       </c>
@@ -976,8 +1111,12 @@
         <f t="shared" si="0"/>
         <v>2.8838755396723145E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.10227356275375052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>-0.14670800000000001</v>
       </c>
@@ -994,8 +1133,12 @@
         <f t="shared" si="0"/>
         <v>6.1365279831495874E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.21762540412756792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>-0.12238300000000001</v>
       </c>
@@ -1012,8 +1155,12 @@
         <f t="shared" si="0"/>
         <v>2.9276195673260331E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.10382489792609044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>-0.113723</v>
       </c>
@@ -1030,8 +1177,12 @@
         <f t="shared" si="0"/>
         <v>6.4760068919590921E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0.22966466067871877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>-0.105827</v>
       </c>
@@ -1048,8 +1199,12 @@
         <f t="shared" si="0"/>
         <v>2.5524351819694216E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>9.0519384823275761E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>-6.2200999999999999E-2</v>
       </c>
@@ -1066,8 +1221,12 @@
         <f t="shared" si="0"/>
         <v>5.5548062504516535E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.19699526481820548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>-5.8638999999999997E-2</v>
       </c>
@@ -1084,8 +1243,12 @@
         <f t="shared" si="0"/>
         <v>5.5181966206760337E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.19569694343895697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>-4.8334000000000002E-2</v>
       </c>
@@ -1101,6 +1264,10 @@
       <c r="E41">
         <f t="shared" si="0"/>
         <v>6.2694058373442149E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.22233777516182626</v>
       </c>
     </row>
   </sheetData>

--- a/DragPrediction/NL2VP DragX/0.5L/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.5L/n/5/test.xlsx
@@ -379,7 +379,7 @@
         <v>8.1675991735537194E-3</v>
       </c>
       <c r="G1">
-        <v>2.8965517239999999E-2</v>
+        <v>2.7452208333333335E-2</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -405,11 +405,11 @@
       </c>
       <c r="G2">
         <f>D2*$G$1</f>
-        <v>2.9586795433073863</v>
+        <v>2.8041027730132089</v>
       </c>
       <c r="H2">
         <f>SUM(G2:G137)</f>
-        <v>8.1116582685792462</v>
+        <v>7.6878631537202118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -431,7 +431,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G41" si="1">D3*$G$1</f>
-        <v>2.7271727626287552</v>
+        <v>2.5846911077178754</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -453,7 +453,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.7442464440548717</v>
+        <v>1.6531179598873336</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -475,7 +475,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.23844355860933519</v>
+        <v>0.22598602995583336</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -497,7 +497,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.2130757034381294</v>
+        <v>0.20194352315854169</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -519,7 +519,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.8165280247887039</v>
+        <v>0.77386836426141681</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -541,7 +541,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.20981021792104351</v>
+        <v>0.19884864354766668</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -563,7 +563,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>2.0744553102460438E-2</v>
+        <v>1.9660750016375E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -585,7 +585,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>-0.30210478343388991</v>
+        <v>-0.28632126209266667</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -607,7 +607,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>-0.50328507307948234</v>
+        <v>-0.47699084959391669</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -629,7 +629,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>-0.27815423998675459</v>
+        <v>-0.26362201930133339</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -651,7 +651,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>-0.22151385102393448</v>
+        <v>-0.20994081813358337</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -673,7 +673,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.13846452826926853</v>
+        <v>0.13123042289662501</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -695,7 +695,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.15147809792382122</v>
+        <v>0.14356409615220833</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -717,7 +717,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>3.2661517239823999E-4</v>
+        <v>3.0955110116666666E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -739,7 +739,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>-0.24591475033311735</v>
+        <v>-0.23306688786008337</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -761,7 +761,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>-0.52634909790597029</v>
+        <v>-0.49884989009700009</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -783,7 +783,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>-0.51207964135492556</v>
+        <v>-0.48532594399250006</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -805,7 +805,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>-0.4907795585973192</v>
+        <v>-0.46513868807250003</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -827,7 +827,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>-0.3520357158453053</v>
+        <v>-0.33364354353091669</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -849,7 +849,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>5.6685777928335158E-2</v>
+        <v>5.3724218778208335E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -871,7 +871,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>9.4626811029976721E-2</v>
+        <v>8.968301545558334E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -893,7 +893,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>3.0756513101983681E-2</v>
+        <v>2.9149633279000005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -915,7 +915,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>7.4725559996441634E-2</v>
+        <v>7.0821509032625005E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -937,7 +937,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>9.9585591719395752E-2</v>
+        <v>9.4382723713416675E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -959,7 +959,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0.11012289930510087</v>
+        <v>0.10436950767858334</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -981,7 +981,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>8.6507428961397834E-2</v>
+        <v>8.1987832033249997E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>8.3711677237393034E-2</v>
+        <v>7.9338144884916667E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>8.73908482717006E-2</v>
+        <v>8.2825096935208342E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>8.7036397237234706E-2</v>
+        <v>8.2489164261833337E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>8.4800085513203269E-2</v>
+        <v>8.0369689065250008E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>7.0017446893217566E-2</v>
+        <v>6.6359372185708337E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>0.10227356275375052</v>
+        <v>9.6930261194541678E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>0.21762540412756792</v>
+        <v>0.20625552387808335</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>0.10382489792609044</v>
+        <v>9.8400546568458341E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>0.22966466067871877</v>
+        <v>0.21766578720195837</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>9.0519384823275761E-2</v>
+        <v>8.5790182505083343E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>0.19699526481820548</v>
+        <v>0.18670321008462504</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>0.19569694343895697</v>
+        <v>0.18547271975050003</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>0.22233777516182626</v>
+        <v>0.21072169619962502</v>
       </c>
     </row>
   </sheetData>
